--- a/data/bd_excel.xlsx
+++ b/data/bd_excel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -416,82 +416,29 @@
         <v>cpf</v>
       </c>
       <c r="E1" t="str">
-        <v>data nascimento</v>
-      </c>
-      <c r="F1" t="str">
-        <v>compareceu</v>
-      </c>
-      <c r="G1" t="str">
-        <v>data_registro</v>
+        <v>dataNascimento</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>tonato</v>
+        <v>BARUERI</v>
       </c>
       <c r="B2" t="str">
-        <v>diacono</v>
+        <v>PASTOR</v>
       </c>
       <c r="C2" t="str">
-        <v>weslei</v>
-      </c>
-      <c r="D2">
-        <v>22998740898</v>
-      </c>
-      <c r="E2">
-        <v>31914</v>
-      </c>
-      <c r="F2" t="str">
-        <v>COMPARECEU</v>
-      </c>
-      <c r="G2" t="str">
-        <v>05/03/2024 19:02:52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>tonato</v>
-      </c>
-      <c r="B3" t="str">
-        <v>lider</v>
-      </c>
-      <c r="C3" t="str">
-        <v>marina</v>
-      </c>
-      <c r="D3" t="str">
-        <v>780.705.100-05</v>
-      </c>
-      <c r="E3">
-        <v>38942</v>
-      </c>
-      <c r="F3" t="str">
-        <v>COMPARECEU</v>
-      </c>
-      <c r="G3" t="str">
-        <v>05/03/2024 19:03:28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>tonato</v>
-      </c>
-      <c r="B4" t="str">
-        <v>diaconisa</v>
-      </c>
-      <c r="C4" t="str">
-        <v>miriam</v>
-      </c>
-      <c r="D4" t="str">
-        <v>520.272.270-24</v>
-      </c>
-      <c r="E4">
-        <v>32660</v>
+        <v>ewrw</v>
+      </c>
+      <c r="D2" t="str">
+        <v>370.785.328-48</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2024-03-29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/bd_excel.xlsx
+++ b/data/bd_excel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" filterPrivacy="true"/>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -418,6 +418,12 @@
       <c r="E1" t="str">
         <v>dataNascimento</v>
       </c>
+      <c r="F1" t="str">
+        <v>statuS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>data registro</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -427,18 +433,53 @@
         <v>PASTOR</v>
       </c>
       <c r="C2" t="str">
-        <v>ewrw</v>
-      </c>
-      <c r="D2" t="str">
+        <v>WESLEI</v>
+      </c>
+      <c r="D2">
+        <v>22998740898</v>
+      </c>
+      <c r="E2">
+        <v>31914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TONATO</v>
+      </c>
+      <c r="B3" t="str">
+        <v>LIDER</v>
+      </c>
+      <c r="C3" t="str">
+        <v>MARINA</v>
+      </c>
+      <c r="D3" t="str">
+        <v>520.272.270-24</v>
+      </c>
+      <c r="E3">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CARAPICUIBA</v>
+      </c>
+      <c r="B4" t="str">
+        <v>DIACONISA</v>
+      </c>
+      <c r="C4" t="str">
+        <v>MIRIAM</v>
+      </c>
+      <c r="D4" t="str">
         <v>370.785.328-48</v>
       </c>
-      <c r="E2" t="str">
-        <v>2024-03-29</v>
+      <c r="E4">
+        <v>32660</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J13"/>
   </ignoredErrors>
 </worksheet>
 </file>